--- a/data/apps-master/1989.xlsx
+++ b/data/apps-master/1989.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2170E0-A105-BF47-9C97-6FE9A1AD8687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A62941-556A-764A-8080-F2F6D6F0FCFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="700" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4379" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4380" uniqueCount="149">
   <si>
     <t>Date</t>
   </si>
@@ -4906,7 +4906,7 @@
   <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7011,7 +7011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
@@ -8379,8 +8379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9701,7 +9701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -9739,6 +9739,9 @@
       </c>
       <c r="F66">
         <v>3</v>
+      </c>
+      <c r="G66" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -9750,8 +9753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10747,7 +10750,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F47">
         <v>4</v>

--- a/data/apps-master/1989.xlsx
+++ b/data/apps-master/1989.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A62941-556A-764A-8080-F2F6D6F0FCFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6114FD4F-F0BA-9A42-A862-5EBC4DA96FBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -438,9 +438,6 @@
     <t>Mark Hughes</t>
   </si>
   <si>
-    <t>Gay Bauress</t>
-  </si>
-  <si>
     <t>Jim Steel</t>
   </si>
   <si>
@@ -478,6 +475,9 @@
   </si>
   <si>
     <t>Left</t>
+  </si>
+  <si>
+    <t>Gary Bauress</t>
   </si>
 </sst>
 </file>
@@ -5063,19 +5063,19 @@
         <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -5126,7 +5126,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -5568,7 +5568,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -5602,7 +5602,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -5687,7 +5687,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -5738,7 +5738,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -5772,7 +5772,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -5789,7 +5789,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -5823,7 +5823,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -5840,7 +5840,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -5925,7 +5925,7 @@
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -5959,7 +5959,7 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -6027,7 +6027,7 @@
         <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -6078,7 +6078,7 @@
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -6112,7 +6112,7 @@
         <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -6180,7 +6180,7 @@
         <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -6248,7 +6248,7 @@
         <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -6282,7 +6282,7 @@
         <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -6299,7 +6299,7 @@
         <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -6373,16 +6373,16 @@
         <v>131</v>
       </c>
       <c r="G83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K83" t="b">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -6433,7 +6433,7 @@
         <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -6637,7 +6637,7 @@
         <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -6671,7 +6671,7 @@
         <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -6688,7 +6688,7 @@
         <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -6912,16 +6912,16 @@
         <v>133</v>
       </c>
       <c r="F114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N114" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
@@ -6941,7 +6941,7 @@
         <v>127</v>
       </c>
       <c r="G115" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
@@ -6964,13 +6964,13 @@
         <v>133</v>
       </c>
       <c r="G116" t="s">
+        <v>140</v>
+      </c>
+      <c r="H116" t="s">
         <v>141</v>
       </c>
-      <c r="H116" t="s">
-        <v>142</v>
-      </c>
       <c r="N116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -6987,19 +6987,19 @@
         <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F117" t="s">
         <v>127</v>
       </c>
       <c r="G117" t="s">
+        <v>141</v>
+      </c>
+      <c r="H117" t="s">
         <v>142</v>
       </c>
-      <c r="H117" t="s">
+      <c r="M117" t="s">
         <v>143</v>
-      </c>
-      <c r="M117" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -8440,7 +8440,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -8460,7 +8460,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -8480,7 +8480,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -8500,7 +8500,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -8520,7 +8520,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -8540,7 +8540,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -8560,7 +8560,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -8580,7 +8580,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -8600,7 +8600,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -8620,7 +8620,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -8640,7 +8640,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -8660,7 +8660,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -8680,7 +8680,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -8700,7 +8700,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -8723,7 +8723,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -8743,7 +8743,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -8763,7 +8763,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -8783,7 +8783,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -8803,13 +8803,13 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -8826,7 +8826,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -8846,7 +8846,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -8869,7 +8869,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -8889,7 +8889,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -8909,7 +8909,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -8929,7 +8929,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -8949,7 +8949,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -8969,7 +8969,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -8989,7 +8989,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -9009,7 +9009,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -9029,7 +9029,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -9049,7 +9049,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -9069,7 +9069,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -9089,7 +9089,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -9109,7 +9109,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -9129,7 +9129,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -9149,7 +9149,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -9169,7 +9169,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -9189,7 +9189,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -9209,7 +9209,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -9229,7 +9229,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -9249,7 +9249,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -9269,7 +9269,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -9289,7 +9289,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -9309,7 +9309,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -9329,7 +9329,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -9615,7 +9615,7 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -9635,7 +9635,7 @@
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -9753,7 +9753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
@@ -10467,7 +10467,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F33">
         <v>4</v>
@@ -10487,7 +10487,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34">
         <v>4</v>
@@ -10507,7 +10507,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -10527,7 +10527,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -10547,7 +10547,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -10567,7 +10567,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -10587,7 +10587,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -10607,7 +10607,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -10627,7 +10627,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F41">
         <v>4</v>
@@ -10647,7 +10647,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F42">
         <v>4</v>
@@ -10670,7 +10670,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F43">
         <v>4</v>
@@ -10690,7 +10690,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F44">
         <v>4</v>
@@ -10770,7 +10770,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F48">
         <v>4</v>
@@ -10790,7 +10790,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F49">
         <v>4</v>
@@ -10810,7 +10810,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F50">
         <v>4</v>
@@ -10830,7 +10830,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F51">
         <v>4</v>
@@ -10850,7 +10850,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -10870,7 +10870,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F53">
         <v>4</v>
@@ -10890,7 +10890,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -10910,7 +10910,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F55">
         <v>4</v>
@@ -10930,7 +10930,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F56">
         <v>4</v>
@@ -10950,7 +10950,7 @@
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F57">
         <v>4</v>
@@ -10970,7 +10970,7 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F58">
         <v>4</v>
@@ -10990,7 +10990,7 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F59">
         <v>4</v>
@@ -11013,7 +11013,7 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F60">
         <v>4</v>
@@ -11033,7 +11033,7 @@
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F61">
         <v>4</v>
@@ -11053,7 +11053,7 @@
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F62">
         <v>4</v>
@@ -11073,7 +11073,7 @@
         <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F63">
         <v>4</v>
@@ -11093,7 +11093,7 @@
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F64">
         <v>4</v>
@@ -11113,7 +11113,7 @@
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F65">
         <v>4</v>
@@ -11133,7 +11133,7 @@
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F66">
         <v>4</v>
@@ -11148,8 +11148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55:G66"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11841,7 +11841,7 @@
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -12433,7 +12433,7 @@
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F62">
         <v>5</v>
@@ -12586,7 +12586,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -12606,7 +12606,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -12626,7 +12626,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -12646,7 +12646,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -12666,7 +12666,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -12686,7 +12686,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -12706,7 +12706,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -12749,7 +12749,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -12769,7 +12769,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -12789,7 +12789,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -12809,7 +12809,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -12829,7 +12829,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -12849,7 +12849,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -12869,13 +12869,13 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F16">
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -12912,7 +12912,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -12932,7 +12932,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -12952,7 +12952,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -13012,7 +13012,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -13032,7 +13032,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -13052,7 +13052,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -13072,7 +13072,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -13095,7 +13095,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -13115,7 +13115,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -13135,7 +13135,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -13155,7 +13155,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -13175,7 +13175,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -13195,7 +13195,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F32">
         <v>6</v>
@@ -13215,7 +13215,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33">
         <v>6</v>
@@ -13235,7 +13235,7 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F34">
         <v>6</v>
@@ -13255,7 +13255,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F35">
         <v>6</v>
@@ -13275,7 +13275,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F36">
         <v>6</v>
@@ -13295,7 +13295,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F37">
         <v>6</v>
@@ -13315,7 +13315,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F38">
         <v>6</v>
@@ -13335,7 +13335,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -13355,7 +13355,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F40">
         <v>6</v>
@@ -13375,7 +13375,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F41">
         <v>6</v>
@@ -13395,7 +13395,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F42">
         <v>6</v>
@@ -13415,7 +13415,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F43">
         <v>6</v>
@@ -13435,7 +13435,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F44">
         <v>6</v>
@@ -13455,7 +13455,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F45">
         <v>6</v>
@@ -13475,7 +13475,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F46">
         <v>6</v>
@@ -13495,7 +13495,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F47">
         <v>6</v>
@@ -13558,7 +13558,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F50">
         <v>6</v>
@@ -13578,7 +13578,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F51">
         <v>6</v>
@@ -13598,7 +13598,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F52">
         <v>6</v>
@@ -13618,7 +13618,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F53">
         <v>6</v>
@@ -13638,7 +13638,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -13658,7 +13658,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -13678,7 +13678,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F56">
         <v>6</v>
@@ -13698,7 +13698,7 @@
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F57">
         <v>6</v>
@@ -13718,7 +13718,7 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F58">
         <v>6</v>
@@ -13738,7 +13738,7 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F59">
         <v>6</v>
@@ -13758,7 +13758,7 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F60">
         <v>6</v>
@@ -13778,7 +13778,7 @@
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F61">
         <v>6</v>
@@ -13798,7 +13798,7 @@
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -13818,7 +13818,7 @@
         <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -13838,7 +13838,7 @@
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -13858,7 +13858,7 @@
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -13878,7 +13878,7 @@
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F66">
         <v>6</v>
@@ -14103,7 +14103,7 @@
         <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -14146,7 +14146,7 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -14189,7 +14189,7 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -16738,7 +16738,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -17047,7 +17047,7 @@
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -17124,7 +17124,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F21">
         <v>9</v>
@@ -17144,7 +17144,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F22">
         <v>9</v>
@@ -17164,7 +17164,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23">
         <v>9</v>
@@ -17184,7 +17184,7 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24">
         <v>9</v>
@@ -17204,7 +17204,7 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F25">
         <v>9</v>
@@ -17224,7 +17224,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F26">
         <v>9</v>
@@ -17244,7 +17244,7 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F27">
         <v>9</v>
@@ -17264,7 +17264,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F28">
         <v>9</v>
@@ -17284,7 +17284,7 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F29">
         <v>9</v>
@@ -17304,7 +17304,7 @@
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F30">
         <v>9</v>
@@ -17324,7 +17324,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F31">
         <v>9</v>
@@ -17344,7 +17344,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F32">
         <v>9</v>
@@ -17410,7 +17410,7 @@
         <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -17433,7 +17433,7 @@
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -17450,7 +17450,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F37">
         <v>9</v>
@@ -17470,7 +17470,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F38">
         <v>9</v>
@@ -17490,7 +17490,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F39">
         <v>9</v>
@@ -17510,7 +17510,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F40">
         <v>9</v>
@@ -17530,7 +17530,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F41">
         <v>9</v>
@@ -17550,7 +17550,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F42">
         <v>9</v>
@@ -17570,7 +17570,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F43">
         <v>9</v>
@@ -17590,7 +17590,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F44">
         <v>9</v>
@@ -17610,7 +17610,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F45">
         <v>9</v>
@@ -17630,7 +17630,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F46">
         <v>9</v>
@@ -17650,7 +17650,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F47">
         <v>9</v>
@@ -17670,7 +17670,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F48">
         <v>9</v>
@@ -17690,7 +17690,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F49">
         <v>9</v>
@@ -17710,7 +17710,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F50">
         <v>9</v>
@@ -17730,7 +17730,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F51">
         <v>9</v>
@@ -17750,7 +17750,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F52">
         <v>9</v>
@@ -17770,7 +17770,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F53">
         <v>9</v>
@@ -17790,7 +17790,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F54">
         <v>9</v>
@@ -17810,7 +17810,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F55">
         <v>9</v>
@@ -17830,7 +17830,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F56">
         <v>9</v>
@@ -17850,7 +17850,7 @@
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F57">
         <v>9</v>
@@ -17870,7 +17870,7 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F58">
         <v>9</v>
@@ -17890,7 +17890,7 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F59">
         <v>9</v>
@@ -17910,7 +17910,7 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F60">
         <v>9</v>
@@ -17930,7 +17930,7 @@
         <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F61">
         <v>9</v>
@@ -17950,7 +17950,7 @@
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F62">
         <v>9</v>
@@ -17970,7 +17970,7 @@
         <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F63">
         <v>9</v>
@@ -17990,7 +17990,7 @@
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F64">
         <v>9</v>
@@ -18010,7 +18010,7 @@
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F65">
         <v>9</v>
@@ -18030,7 +18030,7 @@
         <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F66">
         <v>9</v>

--- a/data/apps-master/1989.xlsx
+++ b/data/apps-master/1989.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6114FD4F-F0BA-9A42-A862-5EBC4DA96FBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1202EF7C-965B-4A4F-A3DA-94C95FD34F1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4380" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4379" uniqueCount="149">
   <si>
     <t>Date</t>
   </si>
@@ -7012,7 +7012,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8379,7 +8379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
@@ -9701,7 +9701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -9739,9 +9739,6 @@
       </c>
       <c r="F66">
         <v>3</v>
-      </c>
-      <c r="G66" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -11148,7 +11145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
@@ -12529,7 +12526,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52:J70"/>
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
